--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,21 +49,24 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
@@ -82,12 +85,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -103,169 +106,172 @@
     <t>best</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>apples</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>wedding</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>mas</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
     <t>dough</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>pop</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nicely</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>super</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>cook</t>
@@ -274,55 +280,52 @@
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>fan</t>
   </si>
   <si>
+    <t>easier</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>kitchen</t>
+    <t>good</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>maker</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>anyone</t>
   </si>
   <si>
     <t>making</t>
@@ -331,15 +334,15 @@
     <t>every</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ice</t>
+    <t>bowl</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
+    <t>last</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
@@ -349,88 +352,82 @@
     <t>makes</t>
   </si>
   <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>big</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>made</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
   </si>
   <si>
     <t>product</t>
@@ -794,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q124"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,10 +799,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -863,13 +860,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -881,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0.967741935483871</v>
@@ -913,13 +910,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -931,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9310344827586207</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -955,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -963,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -981,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1005,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1013,13 +1010,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1031,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>0.890625</v>
@@ -1063,13 +1060,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3798449612403101</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1081,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8560371517027864</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1105,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1113,13 +1110,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3396226415094339</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1131,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.855072463768116</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1155,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1163,13 +1160,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2929292929292929</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1181,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0.8478260869565217</v>
@@ -1213,13 +1210,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2564102564102564</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1231,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.7954545454545454</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1255,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1263,13 +1260,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0972972972972973</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1281,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.7692307692307693</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1305,21 +1302,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1135135135135135</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>164</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1331,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7272727272727273</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L13">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M13">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1357,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.6923076923076923</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1383,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.6915254237288135</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L15">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1409,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.6888888888888889</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1435,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.6712328767123288</v>
+        <v>0.6711864406779661</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1461,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6530612244897959</v>
+        <v>0.65625</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6428571428571429</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L19">
-        <v>801</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>801</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>445</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1544,16 +1565,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6296296296296297</v>
+        <v>0.6268057784911717</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>781</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>781</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1565,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1591,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6103896103896104</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L23">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1617,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1643,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.59375</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1669,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1695,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1721,21 +1742,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5692307692307692</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1747,21 +1768,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5641025641025641</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1773,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.5614035087719298</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1799,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5526315789473685</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1825,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5490196078431373</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1851,12 +1872,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>0.5480769230769231</v>
@@ -1882,16 +1903,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.5441176470588235</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1903,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.5269461077844312</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L35">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="M35">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1929,21 +1950,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.5151515151515151</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1955,21 +1976,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.5142857142857142</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1981,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.5128205128205128</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L38">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2007,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.5060240963855421</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L39">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2033,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2059,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2085,15 +2106,15 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.4923076923076923</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L42">
         <v>32</v>
@@ -2111,21 +2132,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.4871794871794872</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2137,21 +2158,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.4516129032258064</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2163,21 +2184,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.45</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L45">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2189,21 +2210,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.4473684210526316</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2215,21 +2236,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.4444444444444444</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L47">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2241,21 +2262,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.4397590361445783</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L48">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M48">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2267,21 +2288,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.425</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2293,21 +2314,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.4166666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2319,21 +2340,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.4135338345864661</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="L51">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M51">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2345,21 +2366,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K52">
-        <v>0.4078947368421053</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2371,21 +2392,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>0.3829787234042553</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L53">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M53">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2397,21 +2418,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>0.3823529411764706</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2423,21 +2444,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.3673469387755102</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2449,21 +2470,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K56">
-        <v>0.3666666666666666</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2475,21 +2496,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K57">
-        <v>0.3658536585365854</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2501,21 +2522,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K58">
-        <v>0.3650793650793651</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2527,21 +2548,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K59">
-        <v>0.3636363636363636</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2553,21 +2574,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K60">
-        <v>0.360655737704918</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2579,21 +2600,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>39</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>0.3553921568627451</v>
+        <v>0.3540856031128405</v>
       </c>
       <c r="L61">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="M61">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2605,21 +2626,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>263</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K62">
-        <v>0.3463035019455253</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="L62">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2631,21 +2652,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>168</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K63">
-        <v>0.3392857142857143</v>
+        <v>0.3164383561643835</v>
       </c>
       <c r="L63">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="M63">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2657,21 +2678,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>37</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>0.3366336633663367</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="L64">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M64">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2683,21 +2704,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K65">
-        <v>0.3315068493150685</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="L65">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2709,21 +2730,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>488</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K66">
-        <v>0.3260869565217391</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2735,21 +2756,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0.3178807947019868</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L67">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M67">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2761,21 +2782,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>0.3063063063063063</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L68">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M68">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2787,21 +2808,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69">
-        <v>0.3055555555555556</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L69">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="M69">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2813,21 +2834,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>75</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>0.302158273381295</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L70">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M70">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2839,21 +2860,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71">
-        <v>0.2932330827067669</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L71">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M71">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2865,21 +2886,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K72">
-        <v>0.2916666666666667</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2891,21 +2912,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73">
-        <v>0.2792792792792793</v>
+        <v>0.25</v>
       </c>
       <c r="L73">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M73">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2917,21 +2938,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>0.2679425837320574</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L74">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M74">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2943,73 +2964,73 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>153</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>0.2410714285714286</v>
+        <v>0.2411194833153929</v>
       </c>
       <c r="L75">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="N75">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>85</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K76">
-        <v>0.2380952380952381</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L76">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M76">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>0.2361111111111111</v>
+        <v>0.234375</v>
       </c>
       <c r="L77">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3021,21 +3042,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K78">
-        <v>0.2335844994617869</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L78">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="M78">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3047,21 +3068,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>712</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K79">
-        <v>0.2285714285714286</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L79">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3073,21 +3094,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K80">
-        <v>0.2235294117647059</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="L80">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M80">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3099,21 +3120,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K81">
-        <v>0.2235294117647059</v>
+        <v>0.2066225165562914</v>
       </c>
       <c r="L81">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="M81">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3125,12 +3146,12 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>66</v>
+        <v>599</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K82">
         <v>0.2013422818791946</v>
@@ -3156,42 +3177,42 @@
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>0.1973684210526316</v>
+        <v>0.1946222791293214</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>61</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K84">
-        <v>0.1948051948051948</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L84">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="M84">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3203,21 +3224,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>62</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K85">
-        <v>0.1926605504587156</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L85">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M85">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3229,21 +3250,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K86">
-        <v>0.1912225705329154</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="L86">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3255,21 +3276,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>258</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K87">
-        <v>0.1907284768211921</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L87">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="M87">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3281,21 +3302,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>611</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K88">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="L88">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M88">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3307,21 +3328,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K89">
-        <v>0.1890243902439024</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L89">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M89">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3333,21 +3354,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K90">
-        <v>0.1854219948849105</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="L90">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="M90">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3359,21 +3380,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>637</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K91">
-        <v>0.1847826086956522</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L91">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M91">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3385,21 +3406,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K92">
-        <v>0.1709401709401709</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="L92">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3411,21 +3432,21 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K93">
-        <v>0.1621621621621622</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L93">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M93">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N93">
         <v>0.98</v>
@@ -3437,21 +3458,21 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K94">
-        <v>0.1616161616161616</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3463,73 +3484,73 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K95">
-        <v>0.1444444444444444</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="L95">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M95">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N95">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K96">
+        <v>0.1461538461538462</v>
+      </c>
+      <c r="L96">
+        <v>19</v>
+      </c>
+      <c r="M96">
+        <v>19</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
         <v>111</v>
-      </c>
-      <c r="K96">
-        <v>0.1312649164677804</v>
-      </c>
-      <c r="L96">
-        <v>55</v>
-      </c>
-      <c r="M96">
-        <v>55</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>364</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K97">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L97">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M97">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3541,21 +3562,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>385</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K98">
-        <v>0.1242937853107345</v>
+        <v>0.1360381861575179</v>
       </c>
       <c r="L98">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M98">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3567,21 +3588,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>155</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K99">
-        <v>0.1237113402061856</v>
+        <v>0.1340909090909091</v>
       </c>
       <c r="L99">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M99">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3593,21 +3614,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>255</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K100">
-        <v>0.1229508196721311</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="L100">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M100">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3619,21 +3640,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>107</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K101">
-        <v>0.1226993865030675</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="L101">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M101">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3645,21 +3666,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K102">
-        <v>0.119047619047619</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="L102">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M102">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3671,21 +3692,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K103">
-        <v>0.1184210526315789</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="L103">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M103">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3697,21 +3718,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K104">
-        <v>0.1182266009852217</v>
+        <v>0.1192214111922141</v>
       </c>
       <c r="L104">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M104">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3723,21 +3744,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>179</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K105">
-        <v>0.1176470588235294</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="L105">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M105">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3749,21 +3770,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>135</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K106">
-        <v>0.1094890510948905</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="L106">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M106">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3775,21 +3796,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>366</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K107">
-        <v>0.1092436974789916</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L107">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M107">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3801,21 +3822,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K108">
-        <v>0.108974358974359</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L108">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M108">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3827,21 +3848,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>139</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K109">
-        <v>0.1037037037037037</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L109">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M109">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3853,21 +3874,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>242</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K110">
-        <v>0.103030303030303</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L110">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M110">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3879,21 +3900,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K111">
-        <v>0.08653846153846154</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="L111">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M111">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3905,21 +3926,21 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>190</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K112">
-        <v>0.07661290322580645</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L112">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M112">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3931,73 +3952,73 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>229</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K113">
-        <v>0.07575757575757576</v>
+        <v>0.07282913165266107</v>
       </c>
       <c r="L113">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="M113">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>183</v>
+        <v>993</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K114">
-        <v>0.07462686567164178</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L114">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="M114">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114">
-        <v>992</v>
+        <v>649</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K115">
-        <v>0.07377049180327869</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="L115">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M115">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4009,116 +4030,116 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K116">
-        <v>0.06743185078909612</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L116">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M116">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N116">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O116">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>650</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K117">
-        <v>0.06617647058823529</v>
+        <v>0.05545286506469501</v>
       </c>
       <c r="L117">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M117">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>254</v>
+        <v>511</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K118">
-        <v>0.05175600739371534</v>
+        <v>0.05191256830601093</v>
       </c>
       <c r="L118">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M118">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N118">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>513</v>
+        <v>347</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K119">
-        <v>0.05076142131979695</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="L119">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M119">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K120">
         <v>0.05</v>
@@ -4144,16 +4165,16 @@
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K121">
-        <v>0.04945054945054945</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="L121">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M121">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N121">
         <v>0.95</v>
@@ -4165,84 +4186,32 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>346</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K122">
-        <v>0.04415584415584416</v>
+        <v>0.02365308804204994</v>
       </c>
       <c r="L122">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M122">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N122">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="O122">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="123" spans="10:17">
-      <c r="J123" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K123">
-        <v>0.03631961259079903</v>
-      </c>
-      <c r="L123">
-        <v>15</v>
-      </c>
-      <c r="M123">
-        <v>16</v>
-      </c>
-      <c r="N123">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O123">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P123" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q123">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="124" spans="10:17">
-      <c r="J124" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K124">
-        <v>0.02621231979030144</v>
-      </c>
-      <c r="L124">
-        <v>20</v>
-      </c>
-      <c r="M124">
-        <v>24</v>
-      </c>
-      <c r="N124">
-        <v>0.83</v>
-      </c>
-      <c r="O124">
-        <v>0.17</v>
-      </c>
-      <c r="P124" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q124">
         <v>743</v>
       </c>
     </row>
